--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/62_Niğde_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/62_Niğde_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1715820A-2FC9-4AF7-9805-9FA1B70BD109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55F75805-F879-45EE-8C44-B910BD3DC483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="679" xr2:uid="{4C20343F-2402-4455-80A9-D6884D3E9F3F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="679" xr2:uid="{1FDA2953-9C85-4335-8EC4-701DC95F654C}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -1118,14 +1118,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{DC97BC9A-B8ED-4D86-BBD1-D1FBEAD9E559}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{51F31067-9E87-41C4-9EAE-366F6BE60B2F}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{F80DFF34-CC61-416B-8C66-4FA04511B6EB}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{3A39A087-6BB7-4BDA-83FC-C91514BDAF51}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{86C5C66B-131E-4583-BBBA-620D79026A09}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{4988236D-0306-4307-B6DA-4771CD59506E}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{BF15003A-1D52-465B-98E7-D87F93C7ADE0}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{CABA380B-31A9-4326-BB05-093B4B27B33E}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{B204618E-EE18-4CA8-AF92-9C2B73C185AD}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{77DF9E8C-DFDF-4B72-BC88-9FA2C0B8CAAB}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{D63FD5FD-F44C-41AE-AE6F-6EB6E179E40E}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{4FA4241C-ED4F-4FEE-BD7E-D7BFD3EC7601}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{B57DE327-8D7A-4E34-A888-0A3FD0EC48A4}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{76D9F267-9205-4C05-B733-B84687B8FF74}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{B525E139-3CEC-4136-883D-DDCC7F33355B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{4D222776-558C-43F6-9F89-776757E9C2E5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1495,7 +1495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EC3428-D7D7-463C-9A11-659B42E1B7C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787069B4-1100-4D1E-BF5E-C448784A789B}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2775,17 +2775,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0B28FEDE-8B76-4C4E-9330-8C1C39A88F63}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{56E2FF66-5442-4E32-AD2A-0BB6062912BD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{29B84EC8-5A8A-4394-9D06-0756EFF4EF8A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5AE5B9F2-391C-4F50-89ED-C013A6226B0C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FE32DE82-0361-4785-B6ED-520ABDDE483E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2FEC45B0-08E5-4DCB-B288-3633DB52CA41}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{688F8978-A699-497D-85F8-E5985AE00B3D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5CDE8AFE-FB4F-41C1-B26D-C47CF0A99E81}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BA28C157-D77A-430B-A3B1-2C5E8A92F2B7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6F635119-515D-40FD-8334-9352A155F0CA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9AAD4355-675D-4711-A1AC-590B42870ECC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BD144F95-C220-4DF5-A6C2-F4FF395534DC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{36D02457-17C3-45B9-ADEB-A0EB5E583EA0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6C49E97E-D5FD-413B-A6F3-9054404E1981}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{87E61887-44A5-4AE3-A822-6635FEA8DD0B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{03DE4713-21FC-4CCE-849A-4AC655FA5494}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5F3ABD77-7EDE-40F9-9721-DF08E5F30FFD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3FA005E8-B29F-426A-9B7E-0093BCD37C80}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C828E034-2274-4AB7-8ACC-575FB0591331}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C5D6FA09-4E6B-47A2-8A6E-F0ABAAD47D53}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E5FA2AEB-445F-427F-BD7B-283FBB4B2319}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2698DAFE-DB13-4450-92BC-BC4CAF663A1C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2798,7 +2798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B8E81A-2412-410B-A025-510FABAA1206}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFFC1FE-36D1-4ABF-9287-FC479587DFF5}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4069,17 +4069,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2ECBBED4-6E9D-44F3-AB63-A94CED4A738A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{04569DD7-E997-4EBE-A5D6-5EFDF9B1AFCA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E3A227F2-5B8E-4145-8739-2878F2F0C45C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9E71EEF9-B532-4D90-A7E2-92208ADC9681}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DF6EE761-8E52-44E5-887A-88CFC983A6FF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4D8454EF-C681-4D12-967E-69DA00CA7B6B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1BEA319F-4C36-433D-8D53-4F990FA2D060}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2E36549B-70AC-438D-A461-A877554B0CB2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4852A53F-B9D5-416C-AB40-B40F1375C1CE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4E3F1714-5703-4B11-930C-4AB568368CA1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{624BEEF0-C821-42C2-9623-D2FF5A10FDCB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{41081EC5-62CB-4C30-B33C-FD84980714AF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3E86B58D-F47B-48E2-AC89-925BB775CBB4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A2D28505-98B6-4FED-812F-2D15D250E046}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D69E96E6-1D40-49AF-B6CB-CEAE00C4908D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9907212D-78DE-49FF-8FE4-A371FD836181}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C5BAE5C1-6874-4820-BFE1-FB7B285FBDBE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F2B0C831-1B5E-42D2-B0E9-510E412B0A85}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D7D88ECE-642E-4A1A-97E8-433FD1D69506}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CA84B0F2-763D-429C-B50E-E2E434A492D6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BC74DCF1-23DA-4F5B-A258-DBD2DF6AB2F1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E045525A-29A0-42F7-A3D8-F6BB3C1AB311}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4092,7 +4092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5518010-4659-4BE5-B716-D9548A637EB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955C33C3-FB08-4F98-85A5-ACAF3403BE8A}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5355,17 +5355,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{32703EE0-77C7-4868-89BE-2B0B13C6033F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5E9A4066-D3A8-45B5-BC96-73B5B27FCC77}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F2F29BE6-B385-4719-80B8-EBA7E144D051}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D50FD122-5C7D-4E36-803F-A6596C844C67}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{42AA273B-6FC6-4D3D-B9BC-54538D096B58}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FFA18A53-EA18-4467-976F-4F18E46738F9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1A27BFE3-FAAE-428B-9D3F-14798ACFF140}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5E5FF50A-1203-490D-A904-65B99AF9444D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{515A5A40-1592-4D79-A2FF-D8FA8899BF62}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8FB0BC2B-00CE-450D-ACD9-874883EB24EF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{26B1D1E7-5D1D-4810-9823-60790507ED19}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D6A1A65B-4E01-4507-ACB7-27582B574CCF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{13E4D1F4-8D23-41F1-8491-C488AC514047}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{05BBC375-C6BD-445E-9D69-9195746ECDF7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FDB394A1-287A-4A2F-812A-8ADCAA088A71}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{88C7915B-3C66-4B6C-9C0E-215E2942C9E0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7B26DB80-CFE0-4AC0-B667-C452DAE5CEA7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{151997C0-6106-4CBE-B7FA-AD86C452B3AE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{81C2376F-3704-4E90-9F4F-34E27E02CD04}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{29CEA37C-4329-4FD2-96BA-89C060C1F69B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{47A18131-0FC8-414A-A02A-6009CEEDEBAA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9941DECE-298A-4071-A71B-7AEE94D06728}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5378,7 +5378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AFD2A0-9DB9-424B-96CB-8CD65603AD58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F638CD1D-DAF8-43BB-985C-F6D2C464ABB3}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6635,17 +6635,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C1384D00-E223-4B82-BA3F-78BC94826DD2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4DFF079C-783C-4062-9473-7CE6F28E023F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F2ADB0BA-071E-4073-817B-2C2D51BF33EE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{72B3421F-1E29-4923-B3C9-808E58BEAA1C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E204B63A-7912-443E-A299-2CCEBB802A3D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6683B40F-5A76-47BD-AB5F-447D5FF73BA4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{290885B3-CB02-4B15-8165-72C296AA0425}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4FE6824F-E8FD-4C16-BBE6-EA06A4CF0BBC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A4509825-D190-4A8F-AC80-0B1BA7818F22}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{89EEC4F8-B634-436F-8D71-F8EE0A2BB3C5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C9A3653E-B9E2-4476-95B9-18E01213F079}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4CD724DE-2DEB-4164-BB02-FDD76D43567E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4D36D290-082A-46EC-97EB-BA932369BD7D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1EC790F7-D917-425D-A5ED-7BAFB6A14FED}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5DB19EAA-7A9D-4B79-A45E-15C4B40A6BBF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{359330EC-AD78-4E7A-AD1E-781B9CCEFFBF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1C9F291E-8F61-43CF-8EEC-FF0609ABD552}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A9FF7B38-3DDA-4770-A536-6106D0EB457C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{56AD3946-9CA1-47A3-B9E1-B4ACC706F8DC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{921EE685-FD0D-465E-B3E0-9F949D786FAD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{87E9CD49-502E-4BAA-8D1A-6ACAF83EC70E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FB25975E-F657-4A21-A422-F80448D80F5E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6658,7 +6658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31210E7C-F50A-4819-B797-CE2D1D16312E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F869F7-6E52-4247-AC3D-D9381A9D3D9B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7929,17 +7929,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F2412C83-E64E-4164-AD24-2C43BCBDAFD4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D2C5C92-015A-4B4E-A751-222E3BEB7E92}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6DB98997-859C-47F5-9F37-D7ADA333F98A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{10F1668F-A808-47AD-8804-01DC6865F0F0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{94AB4E60-A0D4-42C7-83CF-580B3134E12C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DE7B5C41-1F97-4325-A544-26E5A39B81B2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8424B9A4-CB41-4985-8F8F-46A437E8191B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8AB30D70-2968-4D31-BB4C-BA68850EBE86}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C8D1C064-8F72-4E06-99AA-2E0AC138CF92}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FCC5788A-7FE0-4CDE-A0BB-7DF95A642F4A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1F74CB8A-FACB-43FB-9C59-1894DD39B563}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{63164644-F1D0-4D14-BAE4-4A439278D932}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F2CD1865-0435-4709-BE3D-6762A0C29830}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DA8B161D-C925-4872-B6D8-C36831655186}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2D6DF8D9-70B0-48B2-BF8E-80BDB9681280}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E27D0533-E35C-4D22-A720-BE0522812D39}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EFD4336D-3555-4907-8F9F-357479913BFB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{38758847-8F02-4CE9-99EA-266F1D6EF05E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AB1B56A3-CBC5-4420-8B9A-CFB0217825BF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DBAAF30D-E6B5-4FBE-B2E2-81B797BAB936}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A5B1FAEE-85DA-4032-B371-1322658E9CBE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0D7F6036-8AB5-4DB0-B31E-10F322BF8929}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7952,7 +7952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7E3AD1-4798-4AF2-8571-BF95EFFCEA06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E06C1C-BAFE-4174-92C3-A46B52B52214}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9223,17 +9223,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{76FDE7F0-5B33-4FD7-BC31-ED6E4FD7DBA9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D5DF03C4-57F2-4315-BBCB-9C5C25605596}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{65A927FF-DD64-4618-881E-13C272DB3E13}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D409223F-5BB6-497B-A891-911CC4B416D9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7B865D2D-DC3E-4EA8-A76E-7BF9DCAE3B4B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FA41AE2C-B6F8-4D5C-84CB-62EBF8C59B93}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{02625855-D049-4ADB-A556-5C42FF6D9CEF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AC0FB75E-EAB2-4B9D-93ED-4960B359B66A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0B66CFFE-765B-4795-8FC1-592D32BB7B97}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{55AE8AEF-DA02-43AA-AE08-430DD9633296}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A2453B21-A3FA-48EA-874C-D2C6C02C6CC2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{90B9A20F-D239-4187-9E9F-C880C8BD9FEA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{41AEC6D5-6042-4BF9-B456-B94800E3C1B5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D04F9E05-437E-40B2-BEE7-1FDA4D2FBE89}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BAD567B7-C3D1-4B30-B075-7A67CDED51A2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5C2B22A1-F6A2-4B62-837A-84CBE6201839}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FA4CB94D-694B-4271-A35E-8D0A28280DFA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{88E2FC20-BF94-4FFC-AB96-8C0E5260AD09}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3334DC0C-5B6A-4A95-AFB4-31DC77BDC77F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9FB6C5C4-E99D-4C83-A740-699572E8793F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2B58E287-FFF7-407E-AFA0-5F33243F5778}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{15C4BC22-9E32-4743-BE45-8095187246D3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9246,7 +9246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9913220B-7ACF-4962-A76A-EC2E86C3EA97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606DC06C-FAD4-49DB-9AC0-9741A1B0F96B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10517,17 +10517,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7DDE0AFE-D057-4963-AE4D-D17C9126D6E7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7783C35A-A384-42B7-869C-1F09A246733C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{765857BC-3DDA-4072-83B2-C706F93A75DB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A6D37134-032E-4EAF-9AB2-E9528CE49AD0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{722B7C7D-E21C-4FEF-BCA0-F77398526BB5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{804F3803-7A98-496C-97B2-FDFF9DB62C5A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{84CF25AA-7313-44BD-B6B8-7560E2A7AAA6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8CD2D369-F95F-4EC0-A9F1-0EDF44727ABD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{38D8B554-2617-4FA5-BF6D-44011AA4CA56}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FD2A60E3-A3B1-4891-88B7-01B0580A3530}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E6915AFA-8513-41C0-8F6D-E5D5C678D332}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7523FEA7-0D3A-4736-A3AA-3C92135B7D2C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CF0913C6-E77A-4282-829F-F61EA5429ECF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C7198053-C8E3-42E5-8575-ED013BB81DE3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{190172E9-03D3-4DD8-AFF8-A399F1FAA53C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AF6DA449-A71B-4365-879D-1FFA392827C6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DB4A2E83-4D07-439A-8050-4F044F617527}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A788D55A-5B3D-400C-A5BB-AC1265020673}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9B3D525A-7E9D-48CD-9D06-72C7D55F0793}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B4FD19C6-007F-4FD4-9722-06A39E9DBF41}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EFA0F5C8-ADDB-482B-82FE-EADB553FDDF4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{29F1A8DF-BF59-4253-8986-8149B4955C11}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10540,7 +10540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBEB31D-5E26-4721-B83F-D5C6BB7D15CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B53927E-CAD3-4776-9AA5-D7DBFE0D3E97}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11811,17 +11811,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{998C1FAB-F713-4FB0-8CFD-3E3DD12FA2B2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CF66343C-D614-46A3-8A4F-90EA1FA09CB8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{559F6C04-829C-4D2F-873B-B8A8AB9380D3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{511A9EDE-3AD5-4613-8CF4-10285187FEEB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1B7D0D2D-2D74-4164-8FBB-DDBF7C8B2BED}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{20CD1210-9D45-4497-BB3B-89872F5AFFF8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0559F73B-BA91-4774-A8BD-F751F38E2E8C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A7063589-5617-4912-876A-E115832ABC2D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A779CC5A-D9BB-4A17-8B04-98E514211B42}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7EDB7F10-A90F-45AA-B4FB-9027C3CD3BD2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{00BBA304-6A6A-4117-9368-3E97BE6AF9FE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{411F5423-4EAA-4E30-A2C8-4CCF425D7290}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4EBBEEFD-2AF0-480A-A106-E114C822AD62}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AEA8AD3A-8E24-4F11-8D22-9EBCC7BB8E55}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A31CC74A-4F99-429C-9CDF-29C83B4995B2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4398BC40-AEB3-4D22-A9ED-076D80FF9DD5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7A7F058E-30BB-4959-8980-BE10E3F4B37B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FC2D4E23-0E9D-47A7-A5C7-241C7152F6C1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E99C7321-69D4-4382-B1FF-C849449DD4C8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6E6FBC0E-772A-4CCC-9E62-CE429FB8D08D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8B374A24-A06D-4962-848B-DB02B1264B7A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{501DB616-E1F4-4A36-AF7B-1412621F15F3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11834,7 +11834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC5DBFB-7F66-49B9-BBD9-A730A7579A4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3545E5C-6E68-4968-B38D-E6A21EE413D8}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13105,17 +13105,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{06E8C50A-8FE0-4C6A-968B-2A915D728AFC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D9F3F8FF-7DE9-4A44-ABD3-C1045B1A612A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{084580D6-CF45-4B02-8747-AA81586C1AE7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A954036A-78E1-4BD6-A4D1-4C3ABF2CA413}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E4875076-6E84-44B8-9DFF-D1E7A4E6B5D9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5C5FD6A1-74E3-4B02-8B34-A6F305C63644}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4D6DAD0E-308C-4268-A8C4-27AA9A2E0248}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F80FCDDF-2003-45E3-A239-2E4B617120D8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C75B530F-6C8A-44AE-8A74-7EDB82DBFEFC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AC02BFB1-C792-42C0-AD46-7DE50F518F69}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3635E1A2-64D9-40AB-B62E-84482EF2609F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E57DCD0-5E8B-4517-8098-3C3D9384BBAC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CCBE59DB-A99B-489C-8670-E05B6F069738}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A7999FF6-D036-4418-8222-9639F8B891F2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{24B0BB38-6313-4744-B536-4B435088E72A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E0FBAD80-1B54-4B1F-8F8C-AF7A05B27AF0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{78A1DAF3-10A9-45F2-9AC7-E01767C3EE74}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{87ED716F-640C-477B-AC01-E933A66BDB74}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{787148DB-BC33-4379-A616-B9A4F7CDE3E5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8C0E9B18-C3F7-45B6-9657-FE11524051A7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{14806608-4A27-4429-A812-DA2955C69AA5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0ECA4074-58EF-4BDF-88B2-3B6F5D22E430}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13128,7 +13128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BA4ACF-4BF9-4E57-A804-2909D4C5F41A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1435B2C-06C5-4DDC-A07A-5585B12E02F9}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14399,17 +14399,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{572C5661-2988-4814-91A9-977B0445CA86}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E1FB208C-9FC7-4353-BCD6-9BA3B5A654FC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9EE63AD8-4887-467E-897C-827171E834A9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{772A9A4E-C4C7-45CC-B58B-50031FB327CA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2A0A6D59-291A-409C-A5FF-A068E91534D8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C3F87194-DAD0-456D-AFA9-AF81F1044BFE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{701D66C5-EB2B-47AF-90C5-E667346DBB81}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C58B62DC-5DE2-44CD-B83B-0A32A6EE6ED3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C9C49E82-75F4-459A-B680-7DE29C9FAF5D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1FA570DA-6C3F-45CF-9137-B82317566147}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C078F70E-BFB7-4E0A-B2FF-0D0047B855A0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{72C0C44A-B459-4C68-94CB-FEE7E17C90ED}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E0832CF1-AAC1-46FB-AF3D-FE734A617A69}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C170F946-1910-43CA-8967-1601C597B561}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AE9BA16C-04E1-4CC0-A35E-673FC306F7AA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{276F1EE8-2DF0-4F4D-B399-2D9CE9BE333F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{756BC9CA-F0CD-40D7-8DEE-D23E7A01234C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E4AF8493-6EC9-4A7C-AE75-E2CE75DEC669}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AFC6537B-ABC0-41DB-9D25-C4496D1A1AEF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{40497C73-52EF-4EAC-A4BC-A6F4E12E9983}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5141D1FE-7110-4E23-8BB2-C48A488B3165}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0A9978D6-713C-45FC-B04F-9F64FF4A54BF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14422,7 +14422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99FF5B9-0C56-4A99-9EDB-FCBC74A32F79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68A8F0A-FDE0-4D9D-99D7-26E966FA6663}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15693,17 +15693,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9A7C17C0-285B-47A9-B142-D5704A0E142C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CF1179D4-CBC6-41BF-A099-1BB0A8B8107F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{56AD5BB5-DE4A-4607-B089-F83D834E1E41}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3ACBFF82-34DE-43CA-8034-5A2611615FA8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{86470208-B234-40F0-A526-2024D9039BCB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F08B4D6C-DE46-44F5-997B-1A37708E77A9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0A54DC0C-6D11-4163-8049-D19B843162FC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D41A7665-0D6B-4D6A-9A9D-6B14CC500C65}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{96C32AEA-940D-4836-9187-A3CCCB63C399}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{368162A4-AAA0-450D-A9F8-69B7A5A757FE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{817BB99D-104A-474D-B130-9CD7C3E61337}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{88B68B6A-8B60-4640-BDF5-558BC6D12711}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0BCD6716-F8D0-42AE-9568-466A737C1429}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DAF87940-996B-400F-8B44-249BD81FA5DA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{96DF1B3F-91D1-4C30-9C80-DCC4E9127417}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{06B5C1C0-D1BB-4BE7-9262-E0E4C7C23A58}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A81FD90B-1E1F-451C-AC8D-6536B7EDEB07}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{58C52D35-9EE0-4294-BBA6-2E48A3AA6C56}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{247DCD76-3E19-4D91-B0EB-C2E5D982733F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7043586C-BF0A-4FE2-B98D-E9FEB3F3C9B0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C8D8EA99-C045-490D-944D-88C75998C9B9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4A8D1BBA-5250-4B38-B3FA-7AE8744B5089}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15716,7 +15716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA40FA2-E980-497C-AEAE-F6C2342B9033}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C92F6C-A30C-4DED-BD67-9FF190EB5F1D}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16987,17 +16987,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AB7306E5-5DE0-4576-9F9C-F0EFC7383F8F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{406D2820-F1E8-4220-86DE-2D35AB58C26D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{57EA139E-B15C-469E-BA6F-389422886669}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{93697325-AF6F-41D9-90C4-1143566CE4FC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{71601F38-18E7-4026-92A8-9430F076C7A5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1712670B-28DF-4F44-B5CA-F401BE16CA47}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FD105184-788A-4428-8CC1-2CC310071F82}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D612D1E6-78EA-42BC-83E4-067261814ED7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{817BF91B-752F-4097-A724-E48D77881991}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{38E6F34B-DDDE-4DAE-9EA8-3B79C85B43BB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{010B1F88-0AEF-4DCA-9C01-4BC1DE0898E1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F94EAC81-257C-44FB-9AA3-E73D12B190A5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D5094945-5E8D-482B-B974-5ABB63F255D1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9641B2B6-7702-4C42-B3A1-D9B36F8FC480}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D344DA56-8D91-4BF4-A3C8-960ACEB1104E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D0CA2FF5-E871-4DC7-B623-5E6D952AFB71}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5FCE286D-645F-45E4-B485-E0C88A0800D5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C2026D29-884E-4054-966D-545902730EB7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7D2AA3C7-84DB-4736-A938-3279119EE67F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{28E218EF-9BEA-4EE4-ABA6-E7640003DC93}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{32B8B6EF-3372-4B7E-95F0-3879E794F53F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F2011FB1-A941-483F-A9AF-3767A87C6767}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
